--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1476700.915765482</v>
+        <v>-1479570.343608802</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>349.0104570710529</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.2309990848124</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>49.75696784121567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.35153719005479</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>230.2066354030528</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>385.6420486404871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>207.5912001051813</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.9198292231118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>95.14529001004379</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>356.5138427548274</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165.6232000201153</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.34924931100868</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>30.40549967255409</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>35.0178230565848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>70.81964134445047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>146.5235739004484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.715370239897</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.752853299486</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.487154692735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>725.6989020944909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>314.7129973048833</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.715370239897</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>104.2025452963399</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>864.85022162887</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>857.9047208796666</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>439.9409127778534</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4610,7 +4610,7 @@
         <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.240383333747</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1367.913842923262</v>
+        <v>1266.602715658772</v>
       </c>
       <c r="C8" t="n">
-        <v>998.9513259828504</v>
+        <v>897.6401987183604</v>
       </c>
       <c r="D8" t="n">
-        <v>998.9513259828504</v>
+        <v>897.6401987183604</v>
       </c>
       <c r="E8" t="n">
-        <v>998.9513259828504</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>587.9654211932429</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4805,19 +4805,19 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>877.9592936548923</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1064.6587064803</v>
+        <v>1753.953952370295</v>
       </c>
       <c r="N8" t="n">
-        <v>1691.966374540147</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1367.913842923262</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1367.913842923262</v>
+        <v>1653.202555722894</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>592.9687148475971</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.7359359593715</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="W10" t="n">
-        <v>764.7254868573889</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>536.7359359593715</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>536.7359359593715</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.356899915406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.356899915406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>372.4964262156755</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>867.8220324314344</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>2149.810879820877</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,7 +6461,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,16 +6777,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,10 +7327,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,22 +7391,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>372.112411560143</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>374.4591159598249</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>217.7061247386727</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>73.09871788457454</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>33.72338459242764</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88.70084599496509</v>
       </c>
       <c r="G2" t="n">
-        <v>307.5531709359826</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>106.4139210005795</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.6362364596136</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>136.8413214260737</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>154.8900140445867</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1276135.446231859</v>
+        <v>1276135.446231858</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1276135.446231859</v>
+        <v>1276135.446231858</v>
       </c>
     </row>
     <row r="9">
@@ -26314,25 +26314,25 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
@@ -26344,13 +26344,13 @@
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119782.0978810013</v>
+        <v>119782.0978810012</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682777</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682754</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682762</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682765</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682749</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977625</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977624</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-676564.2113134285</v>
+        <v>-676959.0322545817</v>
       </c>
       <c r="C6" t="n">
         <v>-149099.183800193</v>
@@ -26528,40 +26528,40 @@
         <v>-304902.9898939881</v>
       </c>
       <c r="E6" t="n">
-        <v>-736602.1028256451</v>
+        <v>-736636.8407510808</v>
       </c>
       <c r="F6" t="n">
-        <v>34450.58855516133</v>
+        <v>34415.85062972554</v>
       </c>
       <c r="G6" t="n">
-        <v>34450.58855516119</v>
+        <v>34415.85062972549</v>
       </c>
       <c r="H6" t="n">
-        <v>34450.58855516124</v>
+        <v>34415.85062972552</v>
       </c>
       <c r="I6" t="n">
-        <v>34450.58855516127</v>
+        <v>34415.85062972564</v>
       </c>
       <c r="J6" t="n">
-        <v>-141972.6306374317</v>
+        <v>-142007.3685628675</v>
       </c>
       <c r="K6" t="n">
+        <v>7422.080048926349</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26849.79804255805</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-97358.7126655005</v>
+      </c>
+      <c r="N6" t="n">
+        <v>26849.79804255805</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26849.79804255802</v>
+      </c>
+      <c r="P6" t="n">
         <v>7422.080048926291</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26849.79804255808</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-97358.71266550048</v>
-      </c>
-      <c r="N6" t="n">
-        <v>26849.79804255802</v>
-      </c>
-      <c r="O6" t="n">
-        <v>26849.79804255808</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7422.080048926233</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>318.1751997467463</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>85.39886899847068</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>93.71613736130433</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5958900155664537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>17.44390535290302</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>83.66482412898301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>317.771613935893</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>29.72409590122624</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>1.623621078512514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,19 +28059,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1737490255823</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685829</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>504.288299623204</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,16 +32552,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>152.0754244981388</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>508.374771698973</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,10 +33266,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>322.7581251332984</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,10 +33497,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,19 +33971,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,13 +34214,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35173,22 +35173,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>560.6976770403527</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>546.34702032039</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>356.3218803100808</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>273.7620932913065</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942239</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>370.3138922088737</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,16 +36200,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>6.39592053417488</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>369.8203919190988</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36829,10 +36829,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36914,10 +36914,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>180.6240912112801</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,10 +37145,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,19 +37619,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
